--- a/기획서/Monster Schema.xlsx
+++ b/기획서/Monster Schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unity\LCBD\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3424AAB2-DBF0-491F-87B5-AE0DB39E825E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D7A280-99B6-4911-8DFA-20D4169FAD9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="4395" windowWidth="20940" windowHeight="8850" xr2:uid="{1061F941-036B-436D-B22A-8ACF5D2B0CC4}"/>
+    <workbookView xWindow="1800" yWindow="3180" windowWidth="20940" windowHeight="10635" xr2:uid="{1061F941-036B-436D-B22A-8ACF5D2B0CC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,10 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Monster_Pattern Table의 pattern_number(예정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>근거리 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,6 +184,18 @@
   </si>
   <si>
     <t>패턴 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -240,23 +248,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -347,7 +349,7 @@
             <v>front_sight_range</v>
           </cell>
           <cell r="P1" t="str">
-            <v>touch_sight_angle</v>
+            <v>front_sight_angle</v>
           </cell>
           <cell r="Q1" t="str">
             <v>drop_number</v>
@@ -656,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6730E51-CBCC-4D06-A4FB-799955DDF654}">
-  <dimension ref="A2:G74"/>
+  <dimension ref="B2:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -780,7 +782,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -945,7 +947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
         <f>[2]Sheet1!$O$1</f>
         <v>front_sight_range</v>
@@ -963,10 +965,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="str">
         <f>[2]Sheet1!$P$1</f>
-        <v>touch_sight_angle</v>
+        <v>front_sight_angle</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -981,7 +983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="str">
         <f>[2]Sheet1!$Q$1</f>
         <v>drop_number</v>
@@ -999,540 +1001,184 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="str">
         <f>$B$5</f>
         <v>monster_rank</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="4">
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
         <v>0</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="4">
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="3">
         <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="4">
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="3">
         <v>2</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" t="str">
         <f>$B$6</f>
         <v>reaction_type</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="4">
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="3">
         <v>0</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="4">
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="3">
         <v>1</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="4">
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="3">
         <v>2</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" t="str">
         <f>B8</f>
         <v>attack_style</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="4">
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="3">
         <v>0</v>
       </c>
       <c r="C39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="4">
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="3">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="3">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" t="str">
+        <f>$B$7</f>
+        <v>monster_pattern</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="3">
         <v>1</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="4">
+      <c r="C47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="3">
         <v>2</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="5">
-        <v>3</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="2"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="2"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/기획서/Monster Schema.xlsx
+++ b/기획서/Monster Schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unity\LCBD\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D7A280-99B6-4911-8DFA-20D4169FAD9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E4C8B2-F3BC-4381-A002-7701FFA49B7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="3180" windowWidth="20940" windowHeight="10635" xr2:uid="{1061F941-036B-436D-B22A-8ACF5D2B0CC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1061F941-036B-436D-B22A-8ACF5D2B0CC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Drop Table의 drop_number(예정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>몬스터의 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,10 +132,6 @@
   </si>
   <si>
     <t>몬스터의 전방 시야 각도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드랍 테이블 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -350,9 +342,6 @@
           </cell>
           <cell r="P1" t="str">
             <v>front_sight_angle</v>
-          </cell>
-          <cell r="Q1" t="str">
-            <v>drop_number</v>
           </cell>
         </row>
       </sheetData>
@@ -658,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6730E51-CBCC-4D06-A4FB-799955DDF654}">
-  <dimension ref="B2:F65"/>
+  <dimension ref="B2:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -719,7 +708,7 @@
         <v>monster_name</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -737,7 +726,7 @@
         <v>monster_rank</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -755,7 +744,7 @@
         <v>reaction_type</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -773,7 +762,7 @@
         <v>monster_pattern</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -791,7 +780,7 @@
         <v>attack_style</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -809,7 +798,7 @@
         <v>health</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -827,7 +816,7 @@
         <v>attack</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -845,7 +834,7 @@
         <v>speed</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -863,7 +852,7 @@
         <v>defense</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -881,7 +870,7 @@
         <v>attack_speed</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -899,7 +888,7 @@
         <v>endurance</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -917,7 +906,7 @@
         <v>range</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -935,7 +924,7 @@
         <v>touch_sight</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -953,7 +942,7 @@
         <v>front_sight_range</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -971,7 +960,7 @@
         <v>front_sight_angle</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -983,202 +972,184 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" t="str">
-        <f>[2]Sheet1!$Q$1</f>
-        <v>drop_number</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" t="str">
+      <c r="B24" t="str">
         <f>$B$5</f>
         <v>monster_rank</v>
       </c>
     </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>29</v>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="3">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" t="str">
+      <c r="B30" t="str">
         <f>$B$6</f>
         <v>reaction_type</v>
       </c>
     </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>29</v>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="3">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" t="str">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="str">
         <f>B8</f>
         <v>attack_style</v>
       </c>
     </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>29</v>
+      <c r="B38" s="3">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="3">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>38</v>
-      </c>
+      <c r="B42" s="3"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" t="str">
+      <c r="B43" t="str">
         <f>$B$7</f>
         <v>monster_pattern</v>
       </c>
     </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>29</v>
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="3">
-        <v>2</v>
-      </c>
-      <c r="C48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
